--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>3주차</t>
   </si>
@@ -129,11 +129,6 @@
     <t>풀스택 기반 단일페이지 웹 어플개발</t>
   </si>
   <si>
-    <t>풀스택 기반 단일페이지 웹 어플개발
-자바 프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>자바 프로그래밍
 데이터베이스 활용</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -166,56 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차포폴 주제선정 / 분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 메인구현 : 상세구현하기
-+서브페이지구현포트폴리오 + JS코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 메인구현 : 서브구현하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 주제선정 / 분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 레이아웃 + 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 상세구현하기
-+서브페이지구현포트폴리오 + JS코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 메인구현 : 서브구현하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 발표하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP기본 / 스프링 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버사이드 코딩구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링 기본 / AWS기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>최종발표</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -232,53 +177,125 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차포폴 주제선정 / 분석</t>
-  </si>
-  <si>
-    <t>1차포폴 분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 메인구현 : 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / jQuery 기본 / 자바기본</t>
+    <t>기술지원내용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 응용 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / CGV PJ / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
-도깨비 PJ + 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본 / CSS 애니메이션, 
-도깨비 v2 + 미디어쿼리 / CGV PJ</t>
+와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본
+자바기본 + JSP기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본 및 응용
+자바기본 + JSP기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 기본
+자바기본 + JSP기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / SQL DB 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링응용 / AWS 구축</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
-도깨비 PJ / Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 기본 / 자바기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React기본 / 자바기본 / SQL연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 기본 / SQL연습 / JSP 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 응용 / JSP기본 / SQL연습 / 스프링 기본</t>
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 / CSS 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 및 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 메인 페이지 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 서브 페이지 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 미디어쿼리 적용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 백엔드 적용구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 서버배포 및 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 발표하기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +609,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -607,7 +624,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -622,7 +639,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -642,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,9 +711,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,36 +735,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,22 +759,133 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1114,531 +1209,600 @@
     <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:10" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
+      <c r="B2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B4" s="33" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="34" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B5" s="26" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="B5" s="75"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C6" s="38">
         <v>44805</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="27">
-        <v>44806</v>
-      </c>
-      <c r="F5" s="29">
-        <f t="shared" ref="F5:F12" si="0">DAYS360(C5,E5)+1</f>
-        <v>2</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="38">
-        <v>44809</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="38">
+        <v>44806</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" ref="F6:F13" si="0">DAYS360(C6,E6)+1</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1">
+      <c r="B7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="27">
+        <v>44809</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27">
         <v>44812</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F7" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="42" t="s">
+      <c r="H7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="43"/>
-    </row>
-    <row r="7" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B7" s="37" t="s">
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" ht="35.1" customHeight="1">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C8" s="27">
         <v>44817</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E8" s="27">
         <v>44820</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F8" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B8" s="37" t="s">
+      <c r="H8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C9" s="45">
         <v>44823</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E9" s="45">
         <v>44827</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F9" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="42" t="s">
+      <c r="G9" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18" t="s">
+      <c r="I9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" ht="35.1" customHeight="1">
+      <c r="B10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C10" s="38">
         <v>44830</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="38">
         <v>44834</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F10" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B10" s="8" t="s">
+      <c r="H10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="18">
         <v>44838</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="18">
         <v>44841</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B11" s="8" t="s">
+      <c r="G11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="35.1" customHeight="1">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>44845</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>44848</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B12" s="8" t="s">
+      <c r="H12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="13">
         <v>44851</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="13">
         <v>44855</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="G13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B13" s="8" t="s">
+      <c r="I13" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="35.1" customHeight="1">
+      <c r="B14" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="62">
         <v>44858</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="62">
         <v>44862</v>
       </c>
-      <c r="F13" s="6">
-        <f>DAYS360(C13,E13)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.1" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
-        <v>44865</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="11">
-        <v>44869</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="F14" s="64">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="24" t="s">
+      <c r="G14" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="66" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="35.1" customHeight="1">
+      <c r="K14" s="67"/>
+    </row>
+    <row r="15" spans="1:11" ht="35.1" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="11">
-        <v>44872</v>
+        <v>44865</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="11">
-        <v>44876</v>
+        <v>44869</v>
       </c>
       <c r="F15" s="6">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="35.1" customHeight="1">
+      <c r="J15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35.1" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="11">
-        <v>44879</v>
+        <v>44872</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="11">
-        <v>44883</v>
+        <v>44876</v>
       </c>
       <c r="F16" s="6">
         <f>DAYS360(C16,E16)+1</f>
         <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="2:10" ht="35.1" customHeight="1">
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="11">
-        <v>44886</v>
-      </c>
-      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44879</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="11">
-        <v>44890</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="13">
+        <v>44883</v>
+      </c>
+      <c r="F17" s="15">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="2:10" ht="35.1" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="G17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:11" ht="35.1" customHeight="1">
+      <c r="B18" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="52">
+        <v>44886</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="52">
+        <v>44890</v>
+      </c>
+      <c r="F18" s="54">
+        <f>DAYS360(C18,E18)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="2:11" ht="35.1" customHeight="1">
+      <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>44893</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="11">
-        <v>44897</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F20" si="1">DAYS360(C18,E18)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="2:10" ht="35.1" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11">
-        <v>44900</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="11">
+        <v>44897</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F21" si="1">DAYS360(C19,E19)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" ht="35.1" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44900</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="11">
         <v>44904</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="G20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="2:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B20" s="12" t="s">
+      <c r="J20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C21" s="13">
         <v>44907</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>44907</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="17.25" thickBot="1">
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="4">
-        <f>SUM(F5:F20)</f>
+      <c r="K21" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="17.25" thickBot="1">
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4">
+        <f>SUM(F6:F21)</f>
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B2:J2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\GITA-FSD-JD22\00.커리큐럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12285"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>3주차</t>
   </si>
@@ -101,10 +106,6 @@
   </si>
   <si>
     <t>디자인씽킹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 프로그래밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -139,11 +140,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>웹프로그래밍
-스프링 기반 웹프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>스프링 기반 웹프로그래밍</t>
   </si>
   <si>
@@ -218,21 +214,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>JS응용 / jQuery 기본
-자바기본 + JSP기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본 및 응용
-자바기본 + JSP기본 / SQL연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 기본
-자바기본 + JSP기본 / SQL연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용 / React 응용
 JSP응용 / SQL DB 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -296,13 +277,42 @@
   </si>
   <si>
     <t>포트폴리오 발표하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+자바기본 + JSP응용 / SQL DB 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발
+자바 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본 및 응용
+React 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+자바기본 / SQL연습</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -765,9 +775,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,6 +869,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,7 +996,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1197,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1266,7 +1276,7 @@
       </c>
       <c r="J4" s="72"/>
       <c r="K4" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
@@ -1277,40 +1287,40 @@
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
       <c r="H5" s="73"/>
-      <c r="I5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="36"/>
+      <c r="I5" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>44805</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>44806</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <f t="shared" ref="F6:F13" si="0">DAYS360(C6,E6)+1</f>
         <v>2</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="43"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
       <c r="B7" s="26" t="s">
@@ -1330,16 +1340,16 @@
         <v>4</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -1361,80 +1371,80 @@
         <v>4</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>44823</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>44827</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="50"/>
+      <c r="G9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>44830</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>44834</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="59"/>
+      <c r="G10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1">
       <c r="A11" s="9"/>
@@ -1455,16 +1465,16 @@
         <v>4</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K11" s="25"/>
     </row>
@@ -1486,16 +1496,16 @@
         <v>4</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K12" s="23"/>
     </row>
@@ -1517,49 +1527,49 @@
         <v>5</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="61">
         <v>44858</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="61">
         <v>44862</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="63">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="67"/>
+      <c r="G14" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1">
       <c r="B15" s="8" t="s">
@@ -1579,19 +1589,19 @@
         <v>5</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1">
@@ -1612,16 +1622,16 @@
         <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K16" s="23"/>
     </row>
@@ -1643,49 +1653,49 @@
         <v>5</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="60" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>51</v>
       </c>
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <v>44886</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>44890</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="53">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="57"/>
+      <c r="G18" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="2:11" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
@@ -1705,16 +1715,16 @@
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K19" s="23"/>
     </row>
@@ -1736,16 +1746,16 @@
         <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K20" s="23"/>
     </row>
@@ -1767,17 +1777,17 @@
         <v>1</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1">

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>3주차</t>
   </si>
@@ -306,6 +306,11 @@
   <si>
     <t>jQuery 응용 / React 응용
 자바기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링응용 / AWS 구축</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -745,9 +750,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,6 +898,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1213,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1228,286 +1233,286 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="34" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="75"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="67" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>44805</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>44806</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f t="shared" ref="F6:F13" si="0">DAYS360(C6,E6)+1</f>
         <v>2</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="38" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>44809</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>44812</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>44817</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>44820</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>44823</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>44827</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>44830</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>44834</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="58"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="26">
         <v>44838</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="26">
         <v>44841</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="25"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="18">
         <v>44845</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="18">
         <v>44848</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="I12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B13" s="12" t="s">
@@ -1532,44 +1537,44 @@
       <c r="H13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="58" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="60">
         <v>44858</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="60">
         <v>44862</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="62">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="66"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1">
       <c r="B15" s="8" t="s">
@@ -1658,44 +1663,44 @@
       <c r="H17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="58" t="s">
         <v>51</v>
       </c>
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="50">
         <v>44886</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <v>44890</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="52">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="56"/>
+      <c r="J18" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="2:11" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>3주차</t>
   </si>
@@ -197,14 +197,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>보그 PJ / 파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -214,103 +206,133 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 / CSS 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 및 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 주제선정 / 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 메인 페이지 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 서브 페이지 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 미디어쿼리 적용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 백엔드 적용구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 서버배포 및 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 발표하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀스택 기반 단일페이지 웹 어플개발
+자바 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JS응용 / jQuery 기본
+자바개발 및 SQL서버 환경셋팅 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 기본 / React 기본
+자바기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 기본
+자바기본 + JSP기본 / SQL DB 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>jQuery 응용 / React 응용
-JSP응용 / SQL DB 응용</t>
+자바기본 + JSP기본 / SQL DB 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링기본 / AWS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링응용 / AWS 용용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링응용 / AWS 서버구축</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ / 파일럿 PJ
+기본 DB커넥션 페이지연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+로그인 / 회원가입 / 기본게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+MVC게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+MVC게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+스프링부트 게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jQuery 응용 / React 응용
 JSP응용 / 스프링기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링응용 / AWS 구축</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본 / CSS 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본 및 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 주제선정 / 분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 주제선정 / 분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 메인 페이지 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 서브 페이지 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 미디어쿼리 적용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 백엔드 적용구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 서버배포 및 테스트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 발표하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-자바기본 + JSP응용 / SQL DB 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀스택 기반 단일페이지 웹 어플개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀스택 기반 단일페이지 웹 어플개발
-자바 프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본 및 응용
-React 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-자바기본 / SQL연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링응용 / AWS 구축</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -726,24 +748,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,7 +904,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1233,348 +1255,348 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="33" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="74"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="66" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="30">
         <v>44805</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="30">
         <v>44806</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="32">
         <f t="shared" ref="F6:F13" si="0">DAYS360(C6,E6)+1</f>
         <v>2</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="37" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="20">
         <v>44809</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="20">
         <v>44812</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="20">
         <v>44817</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="20">
         <v>44820</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="32"/>
+      <c r="J8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="37">
         <v>44823</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="37">
         <v>44827</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="44" t="s">
+      <c r="H9" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="48"/>
+      <c r="J9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="30">
         <v>44830</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="30">
         <v>44834</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="37" t="s">
+      <c r="H10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="57"/>
+      <c r="J10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="20">
         <v>44838</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="20">
         <v>44841</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="27" t="s">
+      <c r="G11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="32"/>
+      <c r="J11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="20">
         <v>44845</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="20">
         <v>44848</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="G12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="75"/>
+      <c r="J12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="70">
         <v>44851</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="70">
         <v>44855</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="72">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="58" t="s">
+      <c r="G13" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="24"/>
+      <c r="J13" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="54">
         <v>44858</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="54">
         <v>44862</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="56">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="64" t="s">
+      <c r="G14" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="65"/>
+      <c r="J14" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1">
       <c r="B15" s="8" t="s">
@@ -1597,15 +1619,15 @@
         <v>30</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1630,15 +1652,15 @@
         <v>31</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B17" s="12" t="s">
@@ -1661,46 +1683,46 @@
         <v>32</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="44">
         <v>44886</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="44">
         <v>44890</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="46">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="55"/>
+      <c r="H18" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="2:11" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
@@ -1723,15 +1745,15 @@
         <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="2:11" ht="35.1" customHeight="1">
       <c r="B20" s="8" t="s">
@@ -1754,15 +1776,15 @@
         <v>35</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B21" s="12" t="s">
@@ -1785,13 +1807,13 @@
         <v>35</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="18" t="s">
         <v>38</v>
       </c>
     </row>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>3주차</t>
   </si>
@@ -306,11 +306,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>보그 PJ / 파일럿 PJ
-기본 DB커넥션 페이지연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>파일럿 PJ
 로그인 / 회원가입 / 기본게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -333,6 +328,15 @@
   <si>
     <t>jQuery 응용 / React 응용
 JSP응용 / 스프링기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ
+기본 DB커넥션 페이지연습</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -880,30 +884,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,6 +903,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1255,65 +1259,65 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="68"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="60" t="s">
         <v>43</v>
       </c>
@@ -1537,35 +1541,35 @@
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="62">
         <v>44851</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="62">
         <v>44855</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="64">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="74" t="s">
+      <c r="I13" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="75"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1">
       <c r="B14" s="53" t="s">
@@ -1622,7 +1626,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>65</v>
@@ -1655,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>66</v>
@@ -1686,10 +1690,10 @@
         <v>56</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -1717,7 +1721,7 @@
         <v>57</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="48" t="s">
         <v>67</v>
@@ -1748,7 +1752,7 @@
         <v>57</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>68</v>
@@ -1779,7 +1783,7 @@
         <v>58</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>69</v>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\GITA-FSD-JD22\00.커리큐럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12285"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -271,16 +266,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">JS응용 / jQuery 기본
-자바개발 및 SQL서버 환경셋팅 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 기본 / React 기본
-자바기본 / SQL연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용 / React 기본
 자바기본 + JSP기본 / SQL DB 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -337,13 +322,22 @@
   <si>
     <t>보그 PJ
 기본 DB커넥션 페이지연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 기본 / React 기본
+서버 환경셋팅 / 자바기본 / SQL연습</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -700,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,73 +854,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,7 +968,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,7 +1003,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1238,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1259,69 +1235,69 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="72"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="75"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="60" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="53" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="28"/>
@@ -1540,67 +1516,67 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="37">
         <v>44851</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="37">
         <v>44855</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="67"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="63">
         <v>44858</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="63">
         <v>44862</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="65">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="59"/>
+      <c r="J14" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1">
       <c r="B15" s="8" t="s">
@@ -1626,10 +1602,10 @@
         <v>55</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>39</v>
@@ -1659,10 +1635,10 @@
         <v>55</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -1690,10 +1666,10 @@
         <v>56</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -1721,10 +1697,10 @@
         <v>57</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K18" s="49"/>
     </row>
@@ -1752,10 +1728,10 @@
         <v>57</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1783,10 +1759,10 @@
         <v>58</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" s="17"/>
     </row>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\GITA-FSD-JD22\00.커리큐럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12285"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -272,11 +277,6 @@
   </si>
   <si>
     <t>jQuery 응용 / React 응용
-자바기본 + JSP기본 / SQL DB 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
 JSP응용 / 스프링기본 / AWS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -329,15 +329,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 기본 / React 기본
+    <t>jQuery 기본
 서버 환경셋팅 / 자바기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 기본
+자바기본 + JSP기본 / SQL DB 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -694,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +862,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,28 +889,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,7 +976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,7 +1011,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1215,7 +1223,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1235,65 +1243,65 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="58"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="53" t="s">
         <v>43</v>
       </c>
@@ -1539,75 +1547,75 @@
         <v>54</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="69"/>
+        <v>74</v>
+      </c>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="30">
         <v>44858</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="30">
         <v>44862</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="32">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="68"/>
+      <c r="J14" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="64">
         <v>44865</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="64">
         <v>44869</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="66">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="69" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1635,10 +1643,10 @@
         <v>55</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -1666,10 +1674,10 @@
         <v>56</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -1697,10 +1705,10 @@
         <v>57</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" s="49"/>
     </row>
@@ -1728,10 +1736,10 @@
         <v>57</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1759,10 +1767,10 @@
         <v>58</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="17"/>
     </row>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -271,71 +271,70 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링기본 / AWS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링응용 / AWS 서버구축</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+MVC게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+스프링부트 게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 기본
+서버 환경셋팅 / 자바기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>jQuery 응용 / React 기본
 자바기본 + JSP기본 / SQL DB 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링기본 / AWS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링응용 / AWS 용용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링응용 / AWS 서버구축</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>파일럿 PJ
 로그인 / 회원가입 / 기본게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>파일럿 PJ
-MVC게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ
-MVC게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ
-스프링부트 게시판</t>
+기본 DB커넥션 페이지연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용
+자바기본 / SQL DB 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 기본
+JSP응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jQuery 응용 / React 응용
-JSP응용 / 스프링기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보그 PJ
-기본 DB커넥션 페이지연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 기본
-서버 환경셋팅 / 자바기본 / SQL연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 기본
-자바기본 + JSP기본 / SQL DB 기본</t>
+JSP응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -865,30 +864,6 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,6 +886,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,7 +1222,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1243,65 +1242,65 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="53" t="s">
         <v>43</v>
       </c>
@@ -1547,10 +1546,10 @@
         <v>54</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K13" s="54"/>
     </row>
@@ -1581,74 +1580,74 @@
         <v>45</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="70"/>
+        <v>69</v>
+      </c>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="20">
         <v>44865</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="20">
         <v>44869</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="22">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="69" t="s">
+      <c r="I15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="56">
         <v>44872</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="56">
         <v>44876</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="58">
         <f>DAYS360(C16,E16)+1</f>
         <v>5</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="17"/>
+      <c r="I16" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="61"/>
     </row>
     <row r="17" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B17" s="12" t="s">
@@ -1674,10 +1673,10 @@
         <v>56</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -1705,10 +1704,10 @@
         <v>57</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K18" s="49"/>
     </row>
@@ -1736,10 +1735,10 @@
         <v>57</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1767,10 +1766,10 @@
         <v>58</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" s="17"/>
     </row>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -314,15 +314,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ
-기본 DB커넥션 페이지연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용
 자바기본 / SQL DB 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -335,6 +326,15 @@
   <si>
     <t>jQuery 응용 / React 응용
 JSP응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ
+기본 DB커넥션 페이지연습</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1608,10 +1608,10 @@
         <v>55</v>
       </c>
       <c r="I15" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>39</v>
@@ -1642,7 +1642,7 @@
         <v>55</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J16" s="60" t="s">
         <v>70</v>
@@ -1676,7 +1676,7 @@
         <v>71</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -1707,7 +1707,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K18" s="49"/>
     </row>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -140,9 +140,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>스프링 기반 웹프로그래밍</t>
-  </si>
-  <si>
     <t>프론트엔드 프레임워크활용
 풀스택 기반 단일페이지 웹 어플개발</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -282,11 +279,6 @@
   </si>
   <si>
     <t>파일럿 PJ
-MVC게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ
 스프링부트 게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -309,11 +301,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 PJ
-로그인 / 회원가입 / 기본게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용
 자바기본 / SQL DB 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -333,8 +320,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>데이터베이스 활용
+웹프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>보그 PJ
 기본 DB커넥션 페이지연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ
+MVC게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ / Drama 리스트
+로그인 / 회원가입 / 기본게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,61 +857,58 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,7 +1221,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1240,76 +1239,76 @@
     <col min="11" max="11" width="18.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="64" t="s">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:11" ht="53.25" customHeight="1" thickBot="1">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="69" t="s">
+    <row r="4" spans="2:11" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="70"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="6" spans="2:11" s="3" customFormat="1" ht="35.1" customHeight="1">
       <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
@@ -1336,7 +1335,7 @@
       </c>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="35.1" customHeight="1">
+    <row r="7" spans="2:11" ht="35.1" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
@@ -1357,17 +1356,17 @@
         <v>27</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="35.1" customHeight="1">
+    <row r="8" spans="2:11" ht="35.1" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
@@ -1388,17 +1387,17 @@
         <v>28</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+    <row r="9" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B9" s="36" t="s">
         <v>1</v>
       </c>
@@ -1416,20 +1415,20 @@
         <v>5</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:11" ht="35.1" customHeight="1">
+    <row r="10" spans="2:11" ht="35.1" customHeight="1">
       <c r="B10" s="29" t="s">
         <v>2</v>
       </c>
@@ -1450,17 +1449,17 @@
         <v>29</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="51"/>
     </row>
-    <row r="11" spans="1:11" ht="35.1" customHeight="1">
+    <row r="11" spans="2:11" ht="35.1" customHeight="1">
       <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
@@ -1478,20 +1477,20 @@
         <v>4</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="26"/>
     </row>
-    <row r="12" spans="1:11" ht="35.1" customHeight="1">
+    <row r="12" spans="2:11" ht="35.1" customHeight="1">
       <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
@@ -1509,20 +1508,20 @@
         <v>4</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B13" s="36" t="s">
         <v>5</v>
       </c>
@@ -1540,20 +1539,20 @@
         <v>5</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="1:11" ht="35.1" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="2:11" ht="35.1" customHeight="1">
       <c r="B14" s="29" t="s">
         <v>6</v>
       </c>
@@ -1571,20 +1570,20 @@
         <v>5</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" ht="35.1" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="2:11" ht="35.1" customHeight="1">
       <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
@@ -1605,82 +1604,82 @@
         <v>30</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="35.1" customHeight="1">
+      <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="20">
         <v>44872</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="20">
         <v>44876</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="22">
         <f>DAYS360(C16,E16)+1</f>
         <v>5</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B17" s="12" t="s">
+      <c r="H16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="64">
         <v>44879</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="64">
         <v>44883</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="66">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="52" t="s">
+      <c r="G17" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="2:11" ht="35.1" customHeight="1">
+      <c r="H17" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="69"/>
+    </row>
+    <row r="18" spans="1:11" ht="35.1" customHeight="1">
       <c r="B18" s="43" t="s">
         <v>10</v>
       </c>
@@ -1698,20 +1697,20 @@
         <v>5</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="2:11" ht="35.1" customHeight="1">
+    <row r="19" spans="1:11" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
@@ -1729,20 +1728,20 @@
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="2:11" ht="35.1" customHeight="1">
+    <row r="20" spans="1:11" ht="35.1" customHeight="1">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -1760,20 +1759,20 @@
         <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
@@ -1791,20 +1790,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="17.25" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1">
       <c r="C22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="4">

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>3주차</t>
   </si>
@@ -330,13 +330,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>보그 PJ
-MVC게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>보그 PJ / Drama 리스트
 로그인 / 회원가입 / 기본게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ - 회원가입,로그인
+게시판-일반+MVC설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+MVC게시판 / 스프링부트 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,27 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -890,25 +874,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,7 +1205,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1241,69 +1225,69 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="2:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="59"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="62"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="52" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="45" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="28"/>
@@ -1454,10 +1438,10 @@
       <c r="I10" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:11" ht="35.1" customHeight="1">
       <c r="B11" s="19" t="s">
@@ -1550,7 +1534,7 @@
       <c r="J13" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="53"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:11" ht="35.1" customHeight="1">
       <c r="B14" s="29" t="s">
@@ -1575,13 +1559,13 @@
       <c r="H14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="54"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="2:11" ht="35.1" customHeight="1">
       <c r="B15" s="19" t="s">
@@ -1648,67 +1632,67 @@
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="37">
         <v>44879</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="37">
         <v>44883</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="39">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="68" t="s">
+      <c r="I17" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="57">
         <v>44886</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="57">
         <v>44890</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="59">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="48" t="s">
+      <c r="I18" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="49"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
@@ -1734,7 +1718,7 @@
         <v>56</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>62</v>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -269,17 +269,7 @@
   </si>
   <si>
     <t>jQuery 응용 / React 응용
-JSP응용 / 스프링기본 / AWS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
 JSP응용 / 스프링응용 / AWS 서버구축</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ
-스프링부트 게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -311,11 +301,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 / React 응용
-JSP응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>보그 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -340,8 +325,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 PJ
-MVC게시판 / 스프링부트 기본</t>
+    <t>보그 PJ 백엔드구현
+스프링부트 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링부트 게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 기본
+JSP응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링기본 / AWS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,25 +873,46 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1225,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1529,10 +1549,10 @@
         <v>53</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="46"/>
     </row>
@@ -1563,7 +1583,7 @@
         <v>44</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K14" s="47"/>
     </row>
@@ -1591,10 +1611,10 @@
         <v>54</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>38</v>
@@ -1624,10 +1644,10 @@
         <v>54</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16" s="25"/>
     </row>
@@ -1649,81 +1669,81 @@
         <v>5</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>55</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="64">
         <v>44886</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="64">
         <v>44890</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="66">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="69"/>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="57">
         <v>44893</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="57">
         <v>44897</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="59">
         <f t="shared" ref="F19:F21" si="1">DAYS360(C19,E19)+1</f>
         <v>5</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="17"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1">
       <c r="B20" s="8" t="s">
@@ -1749,10 +1769,10 @@
         <v>57</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="17"/>
     </row>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -268,11 +268,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링응용 / AWS 서버구축</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -325,22 +320,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>보그 PJ 백엔드구현
-스프링부트 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링부트 게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용 / React 기본
 JSP응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>보그 PJ 백엔드구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS배포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>jQuery 응용 / React 응용
-JSP응용 / 스프링기본 / AWS 기본</t>
+JSP응용 / AWS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / AWS 서버구축</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +455,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -720,27 +725,9 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,9 +743,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,30 +833,6 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,6 +873,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,7 +1230,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1245,565 +1250,565 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="2:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="59"/>
+      <c r="K4" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="55"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="45" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="2:11" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="23">
         <v>44805</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="23">
         <v>44806</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="25">
         <f t="shared" ref="F6:F13" si="0">DAYS360(C6,E6)+1</f>
         <v>2</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="13">
         <v>44809</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="13">
         <v>44812</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="13">
         <v>44817</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="13">
         <v>44820</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="30">
         <v>44823</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="30">
         <v>44827</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="42"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="23">
         <v>44830</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="23">
         <v>44834</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="13">
         <v>44838</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="13">
         <v>44841</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="13">
         <v>44845</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="13">
         <v>44848</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="30">
         <v>44851</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="30">
         <v>44855</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="46"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="23">
         <v>44858</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="23">
         <v>44862</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="25">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="47"/>
+      <c r="J14" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="13">
         <v>44865</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="13">
         <v>44869</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="15">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="25" t="s">
+      <c r="I15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="13">
         <v>44872</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="13">
         <v>44876</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="15">
         <f>DAYS360(C16,E16)+1</f>
         <v>5</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="25"/>
+      <c r="I16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="30">
         <v>44879</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="30">
         <v>44883</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="32">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="38" t="s">
+      <c r="G17" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="46"/>
+      <c r="I17" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="49">
         <v>44886</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="49">
         <v>44890</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="51">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="69"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="64">
         <v>44893</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="64">
         <v>44897</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="66">
         <f t="shared" ref="F19:F21" si="1">DAYS360(C19,E19)+1</f>
         <v>5</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="62"/>
+      <c r="J19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="42">
         <v>44900</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="42">
         <v>44904</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="17"/>
+      <c r="J20" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="7">
         <v>44907</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="7">
         <v>44907</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14" t="s">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="11" t="s">
         <v>37</v>
       </c>
     </row>
